--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject17.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject17.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0</v>
+        <v>0.61781270452135284</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -170,7 +170,7 @@
         <v>0</v>
       </c>
       <c r="O1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1" s="0">
         <v>0</v>
@@ -215,7 +215,7 @@
         <v>0</v>
       </c>
       <c r="AD1" s="0">
-        <v>0</v>
+        <v>0.84246810930395377</v>
       </c>
       <c r="AE1" s="0">
         <v>0</v>
@@ -248,7 +248,7 @@
         <v>0</v>
       </c>
       <c r="AO1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP1" s="0">
         <v>0</v>
@@ -287,7 +287,7 @@
         <v>0</v>
       </c>
       <c r="BB1" s="0">
-        <v>0</v>
+        <v>0.72504575251778691</v>
       </c>
       <c r="BC1" s="0">
         <v>0</v>
@@ -326,10 +326,10 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0</v>
+        <v>0.93154299352267222</v>
       </c>
     </row>
     <row r="2">
@@ -340,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.97861784562256326</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -373,7 +373,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>0</v>
+        <v>0.89249806798373355</v>
       </c>
       <c r="O2" s="0">
         <v>0</v>
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" s="0">
         <v>0</v>
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="Z2" s="0">
-        <v>0</v>
+        <v>0.8782346350484791</v>
       </c>
       <c r="AA2" s="0">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="0">
-        <v>0</v>
+        <v>0.73715423652978251</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="BI2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2" s="0">
         <v>0</v>
@@ -535,15 +535,15 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>0.68836793960366061</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.72580695937313278</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.57644898495068198</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="0">
         <v>0</v>
       </c>
       <c r="M3" s="0">
-        <v>0</v>
+        <v>0.73487186921805925</v>
       </c>
       <c r="N3" s="0">
         <v>0</v>
@@ -663,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="AP3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="0">
-        <v>0</v>
+        <v>0.62305028228182491</v>
       </c>
       <c r="AR3" s="0">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="BM3" s="0">
-        <v>0</v>
+        <v>0.66776393605331197</v>
       </c>
       <c r="BN3" s="0">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>0.84686429042225653</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="0">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="0">
-        <v>0</v>
+        <v>0.80568123139747394</v>
       </c>
       <c r="O4" s="0">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="0">
-        <v>0</v>
+        <v>0.67855464335614579</v>
       </c>
       <c r="S4" s="0">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="0">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="0">
-        <v>0</v>
+        <v>0.66070596288182415</v>
       </c>
       <c r="AK4" s="0">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="BL4" s="0">
-        <v>0</v>
+        <v>0.93617951212426931</v>
       </c>
       <c r="BM4" s="0">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="BP4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.55647425182329358</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>0.55125218926564457</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>0</v>
+        <v>0.56845091389341729</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="0">
-        <v>0</v>
+        <v>0.52095412908412053</v>
       </c>
       <c r="AS5" s="0">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="0">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="BE5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="0">
-        <v>0</v>
+        <v>0.7656575772218448</v>
       </c>
       <c r="BG5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="0">
-        <v>0</v>
+        <v>0.93342335921566755</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="0">
-        <v>0</v>
+        <v>0.94167192198112248</v>
       </c>
       <c r="AL6" s="0">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="AN6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="0">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="0">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="0">
-        <v>0</v>
+        <v>0.83555164823577122</v>
       </c>
       <c r="AV6" s="0">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="AY6" s="0">
-        <v>0</v>
+        <v>0.89204331440273266</v>
       </c>
       <c r="AZ6" s="0">
         <v>0</v>
       </c>
       <c r="BA6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="0">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="0">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.81327361820717869</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>0</v>
+        <v>0.95871022822877272</v>
       </c>
       <c r="R7" s="0">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="U7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="0">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="0">
-        <v>0</v>
+        <v>0.89492065022448808</v>
       </c>
       <c r="AA7" s="0">
         <v>0</v>
@@ -1588,16 +1588,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.67726354532238608</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.90092936384962752</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.99795307822899404</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="0">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="0">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="AV8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="0">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="BP8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1797,13 +1797,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.60933934003144907</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>0</v>
+        <v>0.80350529744768795</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="0">
-        <v>0</v>
+        <v>0.66505203510482491</v>
       </c>
       <c r="AS9" s="0">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="0">
-        <v>0</v>
+        <v>0.7235257414158397</v>
       </c>
       <c r="AY9" s="0">
         <v>0</v>
@@ -1944,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="BE9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="0">
-        <v>0</v>
+        <v>0.90624542594278479</v>
       </c>
       <c r="BG9" s="0">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="BP9" s="0">
-        <v>0</v>
+        <v>0.9138445412754046</v>
       </c>
     </row>
     <row r="10">
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.75641680789330157</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2015,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.99629009051279027</v>
       </c>
       <c r="M10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="0">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="0">
-        <v>0</v>
+        <v>0.60336530448070569</v>
       </c>
       <c r="AE10" s="0">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="0">
-        <v>0</v>
+        <v>0.79383328703351019</v>
       </c>
       <c r="AR10" s="0">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AW10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="0">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="BK10" s="0">
-        <v>0</v>
+        <v>0.83547928803297211</v>
       </c>
       <c r="BL10" s="0">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0">
         <v>0</v>
@@ -2221,16 +2221,16 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.58482326425245235</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
       </c>
       <c r="O11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="0">
-        <v>0</v>
+        <v>0.92708424754956775</v>
       </c>
       <c r="AT11" s="0">
         <v>0</v>
@@ -2353,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="0">
-        <v>0</v>
+        <v>0.92845755334254365</v>
       </c>
       <c r="BE11" s="0">
-        <v>0</v>
+        <v>0.69050683288252268</v>
       </c>
       <c r="BF11" s="0">
         <v>0</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.80160105201060838</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2433,19 +2433,19 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.78749697085718728</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
       </c>
       <c r="P12" s="0">
-        <v>0</v>
+        <v>0.89704564295326827</v>
       </c>
       <c r="Q12" s="0">
         <v>0</v>
       </c>
       <c r="R12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="0">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="0">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="AO12" s="0">
-        <v>0</v>
+        <v>0.94546940559776771</v>
       </c>
       <c r="AP12" s="0">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="0">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="BC12" s="0">
-        <v>0</v>
+        <v>0.52359391572001013</v>
       </c>
       <c r="BD12" s="0">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>0.78887886096553261</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.63132016125930834</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="AA13" s="0">
-        <v>0</v>
+        <v>0.71533207682711764</v>
       </c>
       <c r="AB13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="0">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="0">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="BB13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="0">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="BP13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2809,13 +2809,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="0">
-        <v>0</v>
+        <v>0.6147002113305311</v>
       </c>
       <c r="C14" s="0">
         <v>0</v>
       </c>
       <c r="D14" s="0">
-        <v>0</v>
+        <v>0.87298131754730268</v>
       </c>
       <c r="E14" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.70529124269667443</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="0">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="0">
-        <v>0</v>
+        <v>0.57272293812999298</v>
       </c>
       <c r="AC14" s="0">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="AM14" s="0">
-        <v>0</v>
+        <v>0.79355793266408925</v>
       </c>
       <c r="AN14" s="0">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AV14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="0">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="BB14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="0">
         <v>0</v>
@@ -2974,13 +2974,13 @@
         <v>0</v>
       </c>
       <c r="BE14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="0">
         <v>0</v>
       </c>
       <c r="BG14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="0">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="BL14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM14" s="0">
         <v>0</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="0">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="0">
         <v>0</v>
@@ -3057,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0</v>
+        <v>0.89370813322193765</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="0">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="0">
         <v>0</v>
@@ -3174,16 +3174,16 @@
         <v>0</v>
       </c>
       <c r="BC15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="0">
-        <v>0</v>
+        <v>0.93277668494328625</v>
       </c>
       <c r="BE15" s="0">
         <v>0</v>
       </c>
       <c r="BF15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="0">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="0">
-        <v>0</v>
+        <v>0.63973516388182383</v>
       </c>
       <c r="M16" s="0">
         <v>0</v>
@@ -3260,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0</v>
+        <v>0.66119340390140113</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0</v>
+        <v>0.95863796491937792</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="AZ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="0">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="0">
-        <v>0</v>
+        <v>0.90772417271439698</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0</v>
+        <v>0.87096854791345857</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="0">
         <v>0</v>
@@ -3580,13 +3580,13 @@
         <v>0</v>
       </c>
       <c r="BA17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="0">
         <v>0</v>
       </c>
       <c r="BC17" s="0">
-        <v>0</v>
+        <v>0.97070896434629728</v>
       </c>
       <c r="BD17" s="0">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="BF17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG17" s="0">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="BP17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="0">
-        <v>0</v>
+        <v>0.64524251018200629</v>
       </c>
       <c r="E18" s="0">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="0">
-        <v>0</v>
+        <v>0.61095119567549228</v>
       </c>
       <c r="Y18" s="0">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="0">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="0">
-        <v>0</v>
+        <v>0.72982491190651544</v>
       </c>
       <c r="AO18" s="0">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="0">
-        <v>0</v>
+        <v>0.68564942636850423</v>
       </c>
       <c r="AT18" s="0">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="AV18" s="0">
-        <v>0</v>
+        <v>0.93240090254374874</v>
       </c>
       <c r="AW18" s="0">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="BA18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="0">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>0</v>
+        <v>0.64775956733893447</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.8878425798241123</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3938,16 +3938,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="0">
         <v>0</v>
       </c>
       <c r="AL19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="0">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="0">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="0">
         <v>0</v>
@@ -4096,16 +4096,16 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.87465513983983034</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.50571802432996171</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="0">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="AT20" s="0">
-        <v>0</v>
+        <v>0.57177049947742964</v>
       </c>
       <c r="AU20" s="0">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="0">
         <v>0</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="BN20" s="0">
-        <v>0</v>
+        <v>0.54821767580600878</v>
       </c>
       <c r="BO20" s="0">
         <v>0</v>
@@ -4260,13 +4260,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>0</v>
+        <v>0.90728848606264634</v>
       </c>
       <c r="F21" s="0">
         <v>0</v>
       </c>
       <c r="G21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="0">
-        <v>0</v>
+        <v>0.6909581710248851</v>
       </c>
       <c r="AA21" s="0">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="0">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="BE21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="0">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="BJ21" s="0">
-        <v>0</v>
+        <v>0.9304248759907866</v>
       </c>
       <c r="BK21" s="0">
         <v>0</v>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="0">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="0">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.88946177601343246</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="0">
-        <v>0</v>
+        <v>0.72193012427369896</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="0">
-        <v>0</v>
+        <v>0.81731617677670387</v>
       </c>
       <c r="AJ22" s="0">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="0">
         <v>0</v>
@@ -4604,10 +4604,10 @@
         <v>0</v>
       </c>
       <c r="AY22" s="0">
-        <v>0</v>
+        <v>0.8796523212102163</v>
       </c>
       <c r="AZ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="0">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="BG22" s="0">
-        <v>0</v>
+        <v>0.55553971017349424</v>
       </c>
       <c r="BH22" s="0">
         <v>0</v>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="Z23" s="0">
-        <v>0</v>
+        <v>0.91526532334979882</v>
       </c>
       <c r="AA23" s="0">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="AH23" s="0">
-        <v>0</v>
+        <v>0.89885035546560599</v>
       </c>
       <c r="AI23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="0">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="AM23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="0">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="AV23" s="0">
-        <v>1</v>
+        <v>0.80862221044195848</v>
       </c>
       <c r="AW23" s="0">
         <v>0</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="BA23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="0">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="BI23" s="0">
-        <v>0</v>
+        <v>0.76184606506844132</v>
       </c>
       <c r="BJ23" s="0">
         <v>0</v>
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="0">
-        <v>0</v>
+        <v>0.96836932880891524</v>
       </c>
       <c r="S24" s="0">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="0">
-        <v>0</v>
+        <v>0.87772655771169161</v>
       </c>
       <c r="AC24" s="0">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="0">
-        <v>0</v>
+        <v>0.52600427441428343</v>
       </c>
       <c r="AJ24" s="0">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="0">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="AY24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="0">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="BM24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="0">
         <v>0</v>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="BP24" s="0">
-        <v>0</v>
+        <v>0.98593737175969609</v>
       </c>
     </row>
     <row r="25">
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="0">
-        <v>0</v>
+        <v>0.73136606234353541</v>
       </c>
       <c r="W25" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0</v>
+        <v>0.7446487859591755</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="BL25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM25" s="0">
-        <v>0</v>
+        <v>0.71994696125979396</v>
       </c>
       <c r="BN25" s="0">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>0.71209206665398916</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -5293,10 +5293,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>0</v>
+        <v>0.54175620739651065</v>
       </c>
       <c r="G26" s="0">
-        <v>0</v>
+        <v>0.63490711133981415</v>
       </c>
       <c r="H26" s="0">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="0">
         <v>0</v>
@@ -5338,19 +5338,19 @@
         <v>0</v>
       </c>
       <c r="U26" s="0">
-        <v>0</v>
+        <v>0.50769688508406696</v>
       </c>
       <c r="V26" s="0">
         <v>0</v>
       </c>
       <c r="W26" s="0">
-        <v>0</v>
+        <v>0.81143847717559936</v>
       </c>
       <c r="X26" s="0">
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="0">
-        <v>0</v>
+        <v>0.87505309610937532</v>
       </c>
       <c r="AM26" s="0">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="AV26" s="0">
-        <v>0</v>
+        <v>0.55069489086734102</v>
       </c>
       <c r="AW26" s="0">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="0">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BI26" s="0">
-        <v>1</v>
+        <v>0.79085693653616407</v>
       </c>
       <c r="BJ26" s="0">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="0">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="0">
-        <v>0</v>
+        <v>0.71970318427108848</v>
       </c>
       <c r="N27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0</v>
+        <v>0.65068490786969613</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="0">
-        <v>0</v>
+        <v>0.84028929560522747</v>
       </c>
       <c r="AO27" s="0">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="AR27" s="0">
-        <v>0</v>
+        <v>0.96260274082171449</v>
       </c>
       <c r="AS27" s="0">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="AU27" s="0">
-        <v>0</v>
+        <v>0.95136485687735806</v>
       </c>
       <c r="AV27" s="0">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="AX27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="0">
         <v>0</v>
@@ -5673,13 +5673,13 @@
         <v>0</v>
       </c>
       <c r="BL27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM27" s="0">
         <v>0</v>
       </c>
       <c r="BN27" s="0">
-        <v>0</v>
+        <v>0.71915679238707519</v>
       </c>
       <c r="BO27" s="0">
         <v>0</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="0">
         <v>0</v>
@@ -5726,10 +5726,10 @@
         <v>0</v>
       </c>
       <c r="M28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="0">
-        <v>0</v>
+        <v>0.67863715910227262</v>
       </c>
       <c r="O28" s="0">
         <v>0</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="0">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="0">
-        <v>0</v>
+        <v>0.7582869519539801</v>
       </c>
       <c r="Y28" s="0">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="AO28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="0">
         <v>0</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="AU28" s="0">
-        <v>0</v>
+        <v>0.68586447802176487</v>
       </c>
       <c r="AV28" s="0">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" s="0">
-        <v>0</v>
+        <v>0.851700771792403</v>
       </c>
       <c r="BA28" s="0">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="BE28" s="0">
-        <v>0</v>
+        <v>0.76091431857363601</v>
       </c>
       <c r="BF28" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.94865234306784063</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="AO29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29" s="0">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="AW29" s="0">
-        <v>0</v>
+        <v>0.69702691332157074</v>
       </c>
       <c r="AX29" s="0">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="BN29" s="0">
-        <v>0</v>
+        <v>0.60237666051692629</v>
       </c>
       <c r="BO29" s="0">
         <v>0</v>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0</v>
+        <v>0.96325046501457168</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="0">
-        <v>0</v>
+        <v>0.82993615350756056</v>
       </c>
       <c r="K30" s="0">
         <v>0</v>
@@ -6186,13 +6186,13 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.52150996990840826</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="BK30" s="0">
-        <v>0</v>
+        <v>0.62796885496191535</v>
       </c>
       <c r="BL30" s="0">
         <v>0</v>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="BN30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO30" s="0">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="0">
-        <v>0</v>
+        <v>0.94380545070175415</v>
       </c>
       <c r="AK31" s="0">
         <v>0</v>
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="AO31" s="0">
-        <v>0</v>
+        <v>0.96161684585017548</v>
       </c>
       <c r="AP31" s="0">
         <v>0</v>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="AZ31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="0">
         <v>0</v>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="BG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH31" s="0">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="BJ31" s="0">
-        <v>0</v>
+        <v>0.50538056054094382</v>
       </c>
       <c r="BK31" s="0">
         <v>0</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="0">
-        <v>0</v>
+        <v>0.96671542309323388</v>
       </c>
       <c r="AK32" s="0">
         <v>0</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="AO32" s="0">
-        <v>0</v>
+        <v>0.62365491259712691</v>
       </c>
       <c r="AP32" s="0">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="BI32" s="0">
-        <v>1</v>
+        <v>0.50206704351741016</v>
       </c>
       <c r="BJ32" s="0">
         <v>0</v>
@@ -6706,10 +6706,10 @@
         <v>0</v>
       </c>
       <c r="BM32" s="0">
-        <v>0</v>
+        <v>0.669973025861059</v>
       </c>
       <c r="BN32" s="0">
-        <v>0</v>
+        <v>0.8554643256101242</v>
       </c>
       <c r="BO32" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="BC33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD33" s="0">
         <v>0</v>
@@ -6894,10 +6894,10 @@
         <v>0</v>
       </c>
       <c r="BG33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH33" s="0">
-        <v>0</v>
+        <v>0.78603322877812198</v>
       </c>
       <c r="BI33" s="0">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="BO33" s="0">
-        <v>0</v>
+        <v>0.90018862103075747</v>
       </c>
       <c r="BP33" s="0">
         <v>0</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="0">
-        <v>0</v>
+        <v>0.98129822450643567</v>
       </c>
       <c r="X34" s="0">
         <v>0</v>
@@ -7046,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="AO34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="0">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="AZ34" s="0">
-        <v>0</v>
+        <v>0.86416488341807118</v>
       </c>
       <c r="BA34" s="0">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="BI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ34" s="0">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="BN34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO34" s="0">
         <v>0</v>
@@ -7183,10 +7183,10 @@
         <v>0</v>
       </c>
       <c r="R35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="0">
         <v>0</v>
@@ -7195,13 +7195,13 @@
         <v>0</v>
       </c>
       <c r="V35" s="0">
-        <v>0</v>
+        <v>0.76094675183754756</v>
       </c>
       <c r="W35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="0">
-        <v>0</v>
+        <v>0.98269528936771633</v>
       </c>
       <c r="Y35" s="0">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="AT35" s="0">
-        <v>0</v>
+        <v>0.95545721364654912</v>
       </c>
       <c r="AU35" s="0">
         <v>0</v>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="BP35" s="0">
-        <v>0</v>
+        <v>0.71385797640443549</v>
       </c>
     </row>
     <row r="36">
@@ -7347,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="0">
-        <v>0</v>
+        <v>0.88071849153783943</v>
       </c>
       <c r="E36" s="0">
         <v>0</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="0">
         <v>0</v>
@@ -7428,10 +7428,10 @@
         <v>0</v>
       </c>
       <c r="AE36" s="0">
-        <v>0</v>
+        <v>0.6926963524830021</v>
       </c>
       <c r="AF36" s="0">
-        <v>0</v>
+        <v>0.76146672770987234</v>
       </c>
       <c r="AG36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="AV36" s="0">
-        <v>0</v>
+        <v>0.98783626072256081</v>
       </c>
       <c r="AW36" s="0">
         <v>0</v>
@@ -7518,13 +7518,13 @@
         <v>0</v>
       </c>
       <c r="BI36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ36" s="0">
         <v>0</v>
       </c>
       <c r="BK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL36" s="0">
         <v>0</v>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="BO36" s="0">
-        <v>0</v>
+        <v>0.50343071515788806</v>
       </c>
       <c r="BP36" s="0">
         <v>0</v>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="0">
-        <v>0</v>
+        <v>0.89754534328128144</v>
       </c>
       <c r="G37" s="0">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="0">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AN37" s="0">
-        <v>1</v>
+        <v>0.79299188161711975</v>
       </c>
       <c r="AO37" s="0">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="AU37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV37" s="0">
         <v>0</v>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="BB37" s="0">
-        <v>0</v>
+        <v>0.78449624352049496</v>
       </c>
       <c r="BC37" s="0">
         <v>0</v>
@@ -7721,13 +7721,13 @@
         <v>0</v>
       </c>
       <c r="BH37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI37" s="0">
         <v>0</v>
       </c>
       <c r="BJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK37" s="0">
         <v>0</v>
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="0">
         <v>0</v>
@@ -7819,13 +7819,13 @@
         <v>0</v>
       </c>
       <c r="X38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="0">
         <v>0</v>
       </c>
       <c r="Z38" s="0">
-        <v>0</v>
+        <v>0.67909790504251255</v>
       </c>
       <c r="AA38" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.9536563670096887</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="AT38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="0">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="AW38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX38" s="0">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>0</v>
+        <v>0.6172334245244584</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="0">
-        <v>0</v>
+        <v>0.9260536579214611</v>
       </c>
       <c r="O39" s="0">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="0">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.78371181129506384</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="BG39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH39" s="0">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="BK39" s="0">
-        <v>0</v>
+        <v>0.75268848487087525</v>
       </c>
       <c r="BL39" s="0">
         <v>0</v>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="0">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="0">
-        <v>0</v>
+        <v>0.97407421885286227</v>
       </c>
       <c r="S40" s="0">
         <v>0</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="0">
-        <v>0</v>
+        <v>0.60910052870993681</v>
       </c>
       <c r="AB40" s="0">
         <v>0</v>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="0">
-        <v>1</v>
+        <v>0.96082170198786532</v>
       </c>
       <c r="AL40" s="0">
         <v>0</v>
@@ -8282,13 +8282,13 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0</v>
+        <v>0.97679288521595242</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
       </c>
       <c r="AQ40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR40" s="0">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>0</v>
+        <v>0.6506154796216177</v>
       </c>
       <c r="AX40" s="0">
         <v>0</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" s="0">
         <v>0</v>
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="0">
-        <v>0</v>
+        <v>0.94758918187317354</v>
       </c>
       <c r="M41" s="0">
         <v>0</v>
@@ -8449,25 +8449,25 @@
         <v>0</v>
       </c>
       <c r="AB41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="0">
         <v>0</v>
       </c>
       <c r="AE41" s="0">
-        <v>0</v>
+        <v>0.53678763926392303</v>
       </c>
       <c r="AF41" s="0">
-        <v>0</v>
+        <v>0.72809661572036422</v>
       </c>
       <c r="AG41" s="0">
         <v>0</v>
       </c>
       <c r="AH41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="0">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0</v>
+        <v>0.54684271854154565</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="BL41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM41" s="0">
         <v>0</v>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="AH42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0</v>
+        <v>0.91443564328676263</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8730,10 +8730,10 @@
         <v>0</v>
       </c>
       <c r="BA42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="0">
-        <v>0</v>
+        <v>0.98181460838763734</v>
       </c>
       <c r="BC42" s="0">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="BF42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG42" s="0">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="0">
-        <v>0</v>
+        <v>0.63016226204766679</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="0">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="0">
-        <v>0</v>
+        <v>0.90212141505601451</v>
       </c>
       <c r="K43" s="0">
         <v>0</v>
@@ -8897,19 +8897,19 @@
         <v>0</v>
       </c>
       <c r="AN43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO43" s="0">
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>0</v>
+        <v>0.66395626075554248</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.84048520995219889</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="AW43" s="0">
-        <v>0</v>
+        <v>0.82358294861521686</v>
       </c>
       <c r="AX43" s="0">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="BC43" s="0">
-        <v>0</v>
+        <v>0.53880004119884273</v>
       </c>
       <c r="BD43" s="0">
         <v>0</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="BM43" s="0">
-        <v>0</v>
+        <v>0.9587744985679123</v>
       </c>
       <c r="BN43" s="0">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="0">
-        <v>0</v>
+        <v>0.87720831202463556</v>
       </c>
       <c r="F44" s="0">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="0">
-        <v>0</v>
+        <v>0.51390065300934307</v>
       </c>
       <c r="J44" s="0">
         <v>0</v>
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="0">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="0">
-        <v>0</v>
+        <v>0.77244463202030422</v>
       </c>
       <c r="AB44" s="0">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.92989951696268114</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="0">
-        <v>0</v>
+        <v>0.71531370068070066</v>
       </c>
       <c r="BB44" s="0">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="BL44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM44" s="0">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>0</v>
+        <v>0.76656930092657105</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="0">
-        <v>0</v>
+        <v>0.69859279644369743</v>
       </c>
       <c r="S45" s="0">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.51256368924698437</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="AY45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ45" s="0">
         <v>0</v>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="BN45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO45" s="0">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>0</v>
+        <v>0.50980217555484775</v>
       </c>
       <c r="U46" s="0">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="AI46" s="0">
-        <v>0</v>
+        <v>0.96207420410719879</v>
       </c>
       <c r="AJ46" s="0">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="0">
         <v>0</v>
@@ -9527,16 +9527,16 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.56774773087332431</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="0">
         <v>0</v>
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="0">
-        <v>0</v>
+        <v>0.95524159480490511</v>
       </c>
       <c r="G47" s="0">
         <v>0</v>
@@ -9682,10 +9682,10 @@
         <v>0</v>
       </c>
       <c r="AA47" s="0">
-        <v>0</v>
+        <v>0.85656857930205843</v>
       </c>
       <c r="AB47" s="0">
-        <v>0</v>
+        <v>0.71595148758294924</v>
       </c>
       <c r="AC47" s="0">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="0">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.8615414047331631</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9760,13 +9760,13 @@
         <v>0</v>
       </c>
       <c r="BA47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="0">
         <v>0</v>
       </c>
       <c r="BC47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD47" s="0">
         <v>0</v>
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="0">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="0">
         <v>0</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="0">
-        <v>0</v>
+        <v>0.77429452076438376</v>
       </c>
       <c r="S48" s="0">
         <v>0</v>
@@ -9876,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="0">
-        <v>1</v>
+        <v>0.94026971451611274</v>
       </c>
       <c r="X48" s="0">
         <v>0</v>
@@ -9885,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="0">
-        <v>0</v>
+        <v>0.7206015693453991</v>
       </c>
       <c r="AA48" s="0">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="0">
-        <v>0</v>
+        <v>0.80132052982571222</v>
       </c>
       <c r="AK48" s="0">
         <v>0</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="BF48" s="0">
-        <v>0</v>
+        <v>0.99492823097859406</v>
       </c>
       <c r="BG48" s="0">
         <v>0</v>
@@ -10043,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="0">
         <v>0</v>
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="0">
-        <v>0</v>
+        <v>0.54110681239015246</v>
       </c>
       <c r="AD49" s="0">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="AL49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="0">
         <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>0</v>
+        <v>0.70613048549901059</v>
       </c>
       <c r="AO49" s="0">
         <v>0</v>
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="0">
-        <v>0</v>
+        <v>0.61769524386007923</v>
       </c>
       <c r="AR49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.78578661932800231</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="0">
-        <v>0</v>
+        <v>0.82703502672572149</v>
       </c>
       <c r="J50" s="0">
         <v>0</v>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" s="0">
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="0">
         <v>0</v>
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="0">
         <v>0</v>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="BC50" s="0">
-        <v>0</v>
+        <v>0.54372138306077589</v>
       </c>
       <c r="BD50" s="0">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="0">
-        <v>0</v>
+        <v>0.68994489248239066</v>
       </c>
       <c r="G51" s="0">
         <v>0</v>
@@ -10491,13 +10491,13 @@
         <v>0</v>
       </c>
       <c r="V51" s="0">
-        <v>0</v>
+        <v>0.64256876638139659</v>
       </c>
       <c r="W51" s="0">
         <v>0</v>
       </c>
       <c r="X51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="0">
         <v>0</v>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="0">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="BF51" s="0">
-        <v>0</v>
+        <v>0.96805387968900369</v>
       </c>
       <c r="BG51" s="0">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="BI51" s="0">
-        <v>0</v>
+        <v>0.65280492217355812</v>
       </c>
       <c r="BJ51" s="0">
         <v>0</v>
@@ -10620,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="BM51" s="0">
-        <v>0</v>
+        <v>0.59447576764248211</v>
       </c>
       <c r="BN51" s="0">
         <v>0</v>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="BP51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="0">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="0">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="0">
-        <v>0</v>
+        <v>0.53223486471842774</v>
       </c>
       <c r="AC52" s="0">
         <v>0</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="AE52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="0">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="0">
-        <v>0</v>
+        <v>0.58685751066764502</v>
       </c>
       <c r="AI52" s="0">
         <v>0</v>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="AT52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU52" s="0">
         <v>0</v>
@@ -10799,10 +10799,10 @@
         <v>0</v>
       </c>
       <c r="BD52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE52" s="0">
-        <v>0</v>
+        <v>0.69202888386642147</v>
       </c>
       <c r="BF52" s="0">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="BL52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM52" s="0">
         <v>0</v>
@@ -10852,10 +10852,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="0">
         <v>0</v>
@@ -10888,10 +10888,10 @@
         <v>0</v>
       </c>
       <c r="Q53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="0">
         <v>0</v>
@@ -10900,13 +10900,13 @@
         <v>0</v>
       </c>
       <c r="U53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53" s="0">
         <v>0</v>
       </c>
       <c r="W53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X53" s="0">
         <v>0</v>
@@ -10963,13 +10963,13 @@
         <v>0</v>
       </c>
       <c r="AP53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ53" s="0">
         <v>0</v>
       </c>
       <c r="AR53" s="0">
-        <v>0</v>
+        <v>0.79619065855006066</v>
       </c>
       <c r="AS53" s="0">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="AU53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV53" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.54388386546757073</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="BK53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL53" s="0">
         <v>0</v>
@@ -11046,7 +11046,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0</v>
+        <v>0.57873514753870903</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -11082,10 +11082,10 @@
         <v>0</v>
       </c>
       <c r="M54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" s="0">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="0">
-        <v>0</v>
+        <v>0.60789433717142338</v>
       </c>
       <c r="AL54" s="0">
         <v>0</v>
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="AP54" s="0">
-        <v>0</v>
+        <v>0.91106325230005614</v>
       </c>
       <c r="AQ54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.71804501505887708</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="BH54" s="0">
-        <v>0</v>
+        <v>0.87781277000709435</v>
       </c>
       <c r="BI54" s="0">
         <v>0</v>
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="BP54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="0">
-        <v>0</v>
+        <v>0.7959248843981902</v>
       </c>
       <c r="M55" s="0">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="O55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>0</v>
+        <v>0.54648205938099004</v>
       </c>
       <c r="R55" s="0">
         <v>0</v>
@@ -11348,7 +11348,7 @@
         <v>0</v>
       </c>
       <c r="AG55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH55" s="0">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="0">
-        <v>0</v>
+        <v>0.7825088827082185</v>
       </c>
       <c r="AR55" s="0">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AU55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV55" s="0">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="0">
-        <v>0</v>
+        <v>0.71553762791031716</v>
       </c>
       <c r="AY55" s="0">
         <v>0</v>
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="0">
-        <v>0</v>
+        <v>0.75923550793894345</v>
       </c>
       <c r="L56" s="0">
         <v>0</v>
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="0">
-        <v>0</v>
+        <v>0.53202231107234521</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
@@ -11611,7 +11611,7 @@
         <v>0</v>
       </c>
       <c r="AZ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA56" s="0">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.58754992894646829</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11676,10 +11676,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="0">
         <v>0</v>
@@ -11688,13 +11688,13 @@
         <v>0</v>
       </c>
       <c r="I57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="0">
         <v>0</v>
       </c>
       <c r="K57" s="0">
-        <v>0</v>
+        <v>0.89904599781113081</v>
       </c>
       <c r="L57" s="0">
         <v>0</v>
@@ -11703,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="0">
         <v>0</v>
@@ -11724,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" s="0">
         <v>0</v>
@@ -11739,13 +11739,13 @@
         <v>0</v>
       </c>
       <c r="Z57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="0">
         <v>0</v>
       </c>
       <c r="AB57" s="0">
-        <v>0</v>
+        <v>0.58951115649675589</v>
       </c>
       <c r="AC57" s="0">
         <v>0</v>
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="AZ57" s="0">
-        <v>0</v>
+        <v>0.96921942877046607</v>
       </c>
       <c r="BA57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.85698283204900516</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="BK57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL57" s="0">
         <v>0</v>
@@ -11882,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="0">
-        <v>0</v>
+        <v>0.63223429044639756</v>
       </c>
       <c r="F58" s="0">
         <v>0</v>
@@ -11894,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="0">
-        <v>0</v>
+        <v>0.91449960804514041</v>
       </c>
       <c r="J58" s="0">
         <v>0</v>
@@ -11912,13 +11912,13 @@
         <v>0</v>
       </c>
       <c r="O58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="0">
         <v>0</v>
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" s="0">
         <v>0</v>
@@ -11993,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="AP58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ58" s="0">
         <v>0</v>
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="AV58" s="0">
-        <v>0</v>
+        <v>0.71482086829396319</v>
       </c>
       <c r="AW58" s="0">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="AY58" s="0">
-        <v>0</v>
+        <v>0.70300270142144439</v>
       </c>
       <c r="AZ58" s="0">
         <v>0</v>
@@ -12115,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="0">
         <v>0</v>
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="0">
-        <v>0</v>
+        <v>0.74500527705930342</v>
       </c>
       <c r="W59" s="0">
         <v>0</v>
@@ -12166,13 +12166,13 @@
         <v>0</v>
       </c>
       <c r="AE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="0">
         <v>0</v>
       </c>
       <c r="AG59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH59" s="0">
         <v>0</v>
@@ -12190,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="AM59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN59" s="0">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12274,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="BO59" s="0">
-        <v>0</v>
+        <v>0.55476873390239156</v>
       </c>
       <c r="BP59" s="0">
         <v>0</v>
@@ -12378,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="AG60" s="0">
-        <v>0</v>
+        <v>0.88670432313485947</v>
       </c>
       <c r="AH60" s="0">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="0">
         <v>0</v>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR60" s="0">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="BB60" s="0">
-        <v>0</v>
+        <v>0.97090032113643099</v>
       </c>
       <c r="BC60" s="0">
         <v>0</v>
@@ -12456,13 +12456,13 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0</v>
+        <v>0.6190584825413431</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12491,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" s="0">
         <v>0</v>
@@ -12554,7 +12554,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="0">
-        <v>0</v>
+        <v>0.62111853306292841</v>
       </c>
       <c r="X61" s="0">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="0">
-        <v>1</v>
+        <v>0.86942559235091399</v>
       </c>
       <c r="AA61" s="0">
         <v>0</v>
@@ -12581,19 +12581,19 @@
         <v>0</v>
       </c>
       <c r="AF61" s="0">
-        <v>1</v>
+        <v>0.91160754073324579</v>
       </c>
       <c r="AG61" s="0">
         <v>0</v>
       </c>
       <c r="AH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI61" s="0">
         <v>0</v>
       </c>
       <c r="AJ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK61" s="0">
         <v>0</v>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="AY61" s="0">
-        <v>0</v>
+        <v>0.82152272508798152</v>
       </c>
       <c r="AZ61" s="0">
         <v>0</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>0</v>
+        <v>0.96715013126386162</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12674,13 +12674,13 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
       </c>
       <c r="BM61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN61" s="0">
         <v>0</v>
@@ -12754,7 +12754,7 @@
         <v>0</v>
       </c>
       <c r="U62" s="0">
-        <v>0</v>
+        <v>0.94163315128629232</v>
       </c>
       <c r="V62" s="0">
         <v>0</v>
@@ -12784,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="AE62" s="0">
-        <v>0</v>
+        <v>0.51853845942481613</v>
       </c>
       <c r="AF62" s="0">
         <v>0</v>
@@ -12802,7 +12802,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.54541607113068857</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12892,7 +12892,7 @@
         <v>0</v>
       </c>
       <c r="BO62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP62" s="0">
         <v>0</v>
@@ -12927,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="0">
-        <v>0</v>
+        <v>0.61102531137845273</v>
       </c>
       <c r="K63" s="0">
         <v>0</v>
@@ -12987,7 +12987,7 @@
         <v>0</v>
       </c>
       <c r="AD63" s="0">
-        <v>0</v>
+        <v>0.6131903620768151</v>
       </c>
       <c r="AE63" s="0">
         <v>0</v>
@@ -13005,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK63" s="0">
         <v>0</v>
@@ -13014,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="AM63" s="0">
-        <v>0</v>
+        <v>0.7603149062887542</v>
       </c>
       <c r="AN63" s="0">
         <v>0</v>
@@ -13056,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB63" s="0">
         <v>0</v>
@@ -13068,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="BE63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.68066938635792407</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13115,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="0">
-        <v>0</v>
+        <v>0.76666733253602448</v>
       </c>
       <c r="E64" s="0">
         <v>0</v>
@@ -13145,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" s="0">
         <v>0</v>
@@ -13178,13 +13178,13 @@
         <v>0</v>
       </c>
       <c r="Y64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="0">
         <v>0</v>
       </c>
       <c r="AA64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB64" s="0">
         <v>0</v>
@@ -13226,7 +13226,7 @@
         <v>0</v>
       </c>
       <c r="AO64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP64" s="0">
         <v>0</v>
@@ -13235,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="AR64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS64" s="0">
         <v>0</v>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="AZ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.7015893807254765</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.96620414162921842</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.93545373865221626</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.96889324964846801</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13318,7 +13318,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="0">
-        <v>0</v>
+        <v>0.89719660353628139</v>
       </c>
       <c r="D65" s="0">
         <v>0</v>
@@ -13381,10 +13381,10 @@
         <v>0</v>
       </c>
       <c r="X65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="0">
-        <v>0</v>
+        <v>0.88165350708234502</v>
       </c>
       <c r="Z65" s="0">
         <v>0</v>
@@ -13405,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="AF65" s="0">
-        <v>0</v>
+        <v>0.55545861260623841</v>
       </c>
       <c r="AG65" s="0">
         <v>0</v>
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="0">
-        <v>0</v>
+        <v>0.66735120578143381</v>
       </c>
       <c r="AR65" s="0">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="AY65" s="0">
-        <v>0</v>
+        <v>0.8634733638998765</v>
       </c>
       <c r="AZ65" s="0">
         <v>0</v>
@@ -13492,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="BI65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ65" s="0">
         <v>0</v>
@@ -13501,16 +13501,16 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.63032162913334677</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13575,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="T66" s="0">
-        <v>0</v>
+        <v>0.63565743680542508</v>
       </c>
       <c r="U66" s="0">
         <v>0</v>
@@ -13596,28 +13596,28 @@
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>0</v>
+        <v>0.91798728310829047</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
       </c>
       <c r="AC66" s="0">
-        <v>0</v>
+        <v>0.69458089774907816</v>
       </c>
       <c r="AD66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="0">
         <v>0</v>
       </c>
       <c r="AF66" s="0">
-        <v>0</v>
+        <v>0.5301273368506485</v>
       </c>
       <c r="AG66" s="0">
         <v>0</v>
       </c>
       <c r="AH66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI66" s="0">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="AS66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="0">
         <v>0</v>
@@ -13707,16 +13707,16 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.82870815390193453</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.61261292377967458</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13820,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="AG67" s="0">
-        <v>0</v>
+        <v>0.874439075394432</v>
       </c>
       <c r="AH67" s="0">
         <v>0</v>
@@ -13829,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="0">
-        <v>0</v>
+        <v>0.77162660859959842</v>
       </c>
       <c r="AK67" s="0">
         <v>0</v>
@@ -13898,7 +13898,7 @@
         <v>0</v>
       </c>
       <c r="BG67" s="0">
-        <v>0</v>
+        <v>0.6286526321790411</v>
       </c>
       <c r="BH67" s="0">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="BJ67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK67" s="0">
         <v>0</v>
@@ -13916,30 +13916,30 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.94189224486309353</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0</v>
+        <v>0.64850054360491538</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
       </c>
       <c r="D68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" s="0">
         <v>0</v>
@@ -13951,10 +13951,10 @@
         <v>0</v>
       </c>
       <c r="H68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="0">
-        <v>0</v>
+        <v>0.60356570167279266</v>
       </c>
       <c r="J68" s="0">
         <v>0</v>
@@ -13966,7 +13966,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" s="0">
         <v>0</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="0">
         <v>0</v>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="0">
-        <v>0</v>
+        <v>0.56315465301894208</v>
       </c>
       <c r="Y68" s="0">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="AI68" s="0">
-        <v>0</v>
+        <v>0.50789777078289378</v>
       </c>
       <c r="AJ68" s="0">
         <v>0</v>
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="AY68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ68" s="0">
         <v>0</v>
@@ -14089,7 +14089,7 @@
         <v>0</v>
       </c>
       <c r="BB68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject17.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject17.xlsx
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0.61781270452135284</v>
+        <v>0.68836793960366061</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -215,7 +215,7 @@
         <v>0</v>
       </c>
       <c r="AD1" s="0">
-        <v>0.84246810930395377</v>
+        <v>0.96325046501457168</v>
       </c>
       <c r="AE1" s="0">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0.68836793960366061</v>
       </c>
       <c r="B3" s="0">
-        <v>0.72580695937313278</v>
+        <v>0.97861784562256326</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="0">
-        <v>0.73487186921805925</v>
+        <v>0.78887886096553261</v>
       </c>
       <c r="N3" s="0">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="0">
-        <v>0.62305028228182491</v>
+        <v>0.63016226204766679</v>
       </c>
       <c r="AR3" s="0">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="BM3" s="0">
-        <v>0.66776393605331197</v>
+        <v>0.89719660353628139</v>
       </c>
       <c r="BN3" s="0">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="0">
-        <v>0.80568123139747394</v>
+        <v>0.87298131754730268</v>
       </c>
       <c r="O4" s="0">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="0">
-        <v>0.66070596288182415</v>
+        <v>0.88071849153783943</v>
       </c>
       <c r="AK4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.55647425182329358</v>
+        <v>0.57644898495068198</v>
       </c>
       <c r="D5" s="0">
-        <v>0.55125218926564457</v>
+        <v>0.84686429042225653</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>0.56845091389341729</v>
+        <v>0.90728848606264634</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="0">
-        <v>0.52095412908412053</v>
+        <v>0.87720831202463556</v>
       </c>
       <c r="AS5" s="0">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="0">
-        <v>0.83555164823577122</v>
+        <v>0.95524159480490511</v>
       </c>
       <c r="AV6" s="0">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0.67726354532238608</v>
+        <v>0.81327361820717869</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>0.60933934003144907</v>
+        <v>0.90092936384962752</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="0">
-        <v>0.7235257414158397</v>
+        <v>0.82703502672572149</v>
       </c>
       <c r="AY9" s="0">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="BF9" s="0">
-        <v>0.90624542594278479</v>
+        <v>0.91449960804514041</v>
       </c>
       <c r="BG9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.75641680789330157</v>
+        <v>0.99795307822899404</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="0">
-        <v>0.60336530448070569</v>
+        <v>0.82993615350756056</v>
       </c>
       <c r="AE10" s="0">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="0">
-        <v>0.79383328703351019</v>
+        <v>0.90212141505601451</v>
       </c>
       <c r="AR10" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0.58482326425245235</v>
+        <v>0.63132016125930834</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>0.92845755334254365</v>
       </c>
       <c r="BE11" s="0">
-        <v>0.69050683288252268</v>
+        <v>0.89904599781113081</v>
       </c>
       <c r="BF11" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.80160105201060838</v>
+        <v>0.99629009051279027</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="AO12" s="0">
-        <v>0.94546940559776771</v>
+        <v>0.94758918187317354</v>
       </c>
       <c r="AP12" s="0">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="BC12" s="0">
-        <v>0.52359391572001013</v>
+        <v>0.7959248843981902</v>
       </c>
       <c r="BD12" s="0">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="0">
-        <v>0.71533207682711764</v>
+        <v>0.71970318427108848</v>
       </c>
       <c r="AB13" s="0">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="0">
-        <v>0.6147002113305311</v>
+        <v>0.89249806798373355</v>
       </c>
       <c r="C14" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.70529124269667443</v>
+        <v>0.78749697085718728</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="0">
-        <v>0.57272293812999298</v>
+        <v>0.67863715910227262</v>
       </c>
       <c r="AC14" s="0">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="AM14" s="0">
-        <v>0.79355793266408925</v>
+        <v>0.9260536579214611</v>
       </c>
       <c r="AN14" s="0">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="0">
-        <v>0.63973516388182383</v>
+        <v>0.89704564295326827</v>
       </c>
       <c r="M16" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0.66119340390140113</v>
+        <v>0.89370813322193765</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="0">
-        <v>0.90772417271439698</v>
+        <v>0.95871022822877272</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0.87096854791345857</v>
+        <v>0.95863796491937792</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="0">
-        <v>0.64524251018200629</v>
+        <v>0.67855464335614579</v>
       </c>
       <c r="E18" s="0">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="0">
-        <v>0.61095119567549228</v>
+        <v>0.96836932880891524</v>
       </c>
       <c r="Y18" s="0">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="0">
-        <v>0.72982491190651544</v>
+        <v>0.97407421885286227</v>
       </c>
       <c r="AO18" s="0">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="0">
-        <v>0.68564942636850423</v>
+        <v>0.69859279644369743</v>
       </c>
       <c r="AT18" s="0">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>0.64775956733893447</v>
+        <v>0.80350529744768795</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>0.87465513983983034</v>
+        <v>0.8878425798241123</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.50571802432996171</v>
+        <v>0.88946177601343246</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="BN20" s="0">
-        <v>0.54821767580600878</v>
+        <v>0.63565743680542508</v>
       </c>
       <c r="BO20" s="0">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="BJ21" s="0">
-        <v>0.9304248759907866</v>
+        <v>0.94163315128629232</v>
       </c>
       <c r="BK21" s="0">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="0">
-        <v>0.72193012427369896</v>
+        <v>0.73136606234353541</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="BG22" s="0">
-        <v>0.55553971017349424</v>
+        <v>0.74500527705930342</v>
       </c>
       <c r="BH22" s="0">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="AH23" s="0">
-        <v>0.89885035546560599</v>
+        <v>0.98129822450643567</v>
       </c>
       <c r="AI23" s="0">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="AV23" s="0">
-        <v>0.80862221044195848</v>
+        <v>0.94026971451611274</v>
       </c>
       <c r="AW23" s="0">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="0">
-        <v>0.52600427441428343</v>
+        <v>0.98269528936771633</v>
       </c>
       <c r="AJ24" s="0">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="BM25" s="0">
-        <v>0.71994696125979396</v>
+        <v>0.88165350708234502</v>
       </c>
       <c r="BN25" s="0">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="0">
-        <v>0.71209206665398916</v>
+        <v>0.8782346350484791</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -5293,10 +5293,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>0.54175620739651065</v>
+        <v>0.93342335921566755</v>
       </c>
       <c r="G26" s="0">
-        <v>0.63490711133981415</v>
+        <v>0.89492065022448808</v>
       </c>
       <c r="H26" s="0">
         <v>0</v>
@@ -5338,13 +5338,13 @@
         <v>0</v>
       </c>
       <c r="U26" s="0">
-        <v>0.50769688508406696</v>
+        <v>0.6909581710248851</v>
       </c>
       <c r="V26" s="0">
         <v>0</v>
       </c>
       <c r="W26" s="0">
-        <v>0.81143847717559936</v>
+        <v>0.91526532334979882</v>
       </c>
       <c r="X26" s="0">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="AV26" s="0">
-        <v>0.55069489086734102</v>
+        <v>0.7206015693453991</v>
       </c>
       <c r="AW26" s="0">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BI26" s="0">
-        <v>0.79085693653616407</v>
+        <v>0.86942559235091399</v>
       </c>
       <c r="BJ26" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.65068490786969613</v>
+        <v>0.7446487859591755</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="BN27" s="0">
-        <v>0.71915679238707519</v>
+        <v>0.91798728310829047</v>
       </c>
       <c r="BO27" s="0">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="0">
-        <v>0.7582869519539801</v>
+        <v>0.87772655771169161</v>
       </c>
       <c r="Y28" s="0">
         <v>0</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="AU28" s="0">
-        <v>0.68586447802176487</v>
+        <v>0.71595148758294924</v>
       </c>
       <c r="AV28" s="0">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="BN29" s="0">
-        <v>0.60237666051692629</v>
+        <v>0.69458089774907816</v>
       </c>
       <c r="BO29" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.52150996990840826</v>
+        <v>0.94865234306784063</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="BJ31" s="0">
-        <v>0.50538056054094382</v>
+        <v>0.51853845942481613</v>
       </c>
       <c r="BK31" s="0">
         <v>0</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="AO32" s="0">
-        <v>0.62365491259712691</v>
+        <v>0.72809661572036422</v>
       </c>
       <c r="AP32" s="0">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="BI32" s="0">
-        <v>0.50206704351741016</v>
+        <v>0.91160754073324579</v>
       </c>
       <c r="BJ32" s="0">
         <v>0</v>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="BH33" s="0">
-        <v>0.78603322877812198</v>
+        <v>0.88670432313485947</v>
       </c>
       <c r="BI33" s="0">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="0">
-        <v>0.76094675183754756</v>
+        <v>0.81731617677670387</v>
       </c>
       <c r="W35" s="0">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="AT35" s="0">
-        <v>0.95545721364654912</v>
+        <v>0.96207420410719879</v>
       </c>
       <c r="AU35" s="0">
         <v>0</v>
@@ -7428,10 +7428,10 @@
         <v>0</v>
       </c>
       <c r="AE36" s="0">
-        <v>0.6926963524830021</v>
+        <v>0.94380545070175415</v>
       </c>
       <c r="AF36" s="0">
-        <v>0.76146672770987234</v>
+        <v>0.96671542309323388</v>
       </c>
       <c r="AG36" s="0">
         <v>0</v>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="BO36" s="0">
-        <v>0.50343071515788806</v>
+        <v>0.77162660859959842</v>
       </c>
       <c r="BP36" s="0">
         <v>0</v>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="0">
-        <v>0.89754534328128144</v>
+        <v>0.94167192198112248</v>
       </c>
       <c r="G37" s="0">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AN37" s="0">
-        <v>0.79299188161711975</v>
+        <v>0.96082170198786532</v>
       </c>
       <c r="AO37" s="0">
         <v>0</v>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="0">
-        <v>0.67909790504251255</v>
+        <v>0.87505309610937532</v>
       </c>
       <c r="AA38" s="0">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>0.6172334245244584</v>
+        <v>0.73715423652978251</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.78371181129506384</v>
+        <v>0.9536563670096887</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="BK39" s="0">
-        <v>0.75268848487087525</v>
+        <v>0.7603149062887542</v>
       </c>
       <c r="BL39" s="0">
         <v>0</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="0">
-        <v>0.60910052870993681</v>
+        <v>0.84028929560522747</v>
       </c>
       <c r="AB40" s="0">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>0.6506154796216177</v>
+        <v>0.70613048549901059</v>
       </c>
       <c r="AX40" s="0">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="AE41" s="0">
-        <v>0.53678763926392303</v>
+        <v>0.96161684585017548</v>
       </c>
       <c r="AF41" s="0">
         <v>0.72809661572036422</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.54684271854154565</v>
+        <v>0.97679288521595242</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8903,13 +8903,13 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.66395626075554248</v>
+        <v>0.91443564328676263</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.84048520995219889</v>
+        <v>0.92989951696268114</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="BC43" s="0">
-        <v>0.53880004119884273</v>
+        <v>0.7825088827082185</v>
       </c>
       <c r="BD43" s="0">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="0">
-        <v>0.51390065300934307</v>
+        <v>0.66505203510482491</v>
       </c>
       <c r="J44" s="0">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="0">
-        <v>0.77244463202030422</v>
+        <v>0.96260274082171449</v>
       </c>
       <c r="AB44" s="0">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="0">
-        <v>0.71531370068070066</v>
+        <v>0.79619065855006066</v>
       </c>
       <c r="BB44" s="0">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>0.76656930092657105</v>
+        <v>0.92708424754956775</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.51256368924698437</v>
+        <v>0.56774773087332431</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>0.50980217555484775</v>
+        <v>0.57177049947742964</v>
       </c>
       <c r="U46" s="0">
         <v>0</v>
@@ -9682,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="0">
-        <v>0.85656857930205843</v>
+        <v>0.95136485687735806</v>
       </c>
       <c r="AB47" s="0">
         <v>0.71595148758294924</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="0">
-        <v>0.77429452076438376</v>
+        <v>0.93240090254374874</v>
       </c>
       <c r="S48" s="0">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="0">
-        <v>0.80132052982571222</v>
+        <v>0.98783626072256081</v>
       </c>
       <c r="AK48" s="0">
         <v>0</v>
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="0">
-        <v>0.54110681239015246</v>
+        <v>0.69702691332157074</v>
       </c>
       <c r="AD49" s="0">
         <v>0</v>
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="0">
-        <v>0.61769524386007923</v>
+        <v>0.82358294861521686</v>
       </c>
       <c r="AR49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.78578661932800231</v>
+        <v>0.8615414047331631</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="BC50" s="0">
-        <v>0.54372138306077589</v>
+        <v>0.71553762791031716</v>
       </c>
       <c r="BD50" s="0">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="0">
-        <v>0.68994489248239066</v>
+        <v>0.89204331440273266</v>
       </c>
       <c r="G51" s="0">
         <v>0</v>
@@ -10491,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="0">
-        <v>0.64256876638139659</v>
+        <v>0.8796523212102163</v>
       </c>
       <c r="W51" s="0">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="BI51" s="0">
-        <v>0.65280492217355812</v>
+        <v>0.82152272508798152</v>
       </c>
       <c r="BJ51" s="0">
         <v>0</v>
@@ -10620,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="BM51" s="0">
-        <v>0.59447576764248211</v>
+        <v>0.8634733638998765</v>
       </c>
       <c r="BN51" s="0">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="0">
-        <v>0.53223486471842774</v>
+        <v>0.851700771792403</v>
       </c>
       <c r="AC52" s="0">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="0">
-        <v>0.58685751066764502</v>
+        <v>0.86416488341807118</v>
       </c>
       <c r="AI52" s="0">
         <v>0</v>
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="BE52" s="0">
-        <v>0.69202888386642147</v>
+        <v>0.96921942877046607</v>
       </c>
       <c r="BF52" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.54388386546757073</v>
+        <v>0.71804501505887708</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11046,7 +11046,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.57873514753870903</v>
+        <v>0.72504575251778691</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="0">
-        <v>0.60789433717142338</v>
+        <v>0.78449624352049496</v>
       </c>
       <c r="AL54" s="0">
         <v>0</v>
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="AP54" s="0">
-        <v>0.91106325230005614</v>
+        <v>0.98181460838763734</v>
       </c>
       <c r="AQ54" s="0">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="BH54" s="0">
-        <v>0.87781277000709435</v>
+        <v>0.97090032113643099</v>
       </c>
       <c r="BI54" s="0">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>0.54648205938099004</v>
+        <v>0.97070896434629728</v>
       </c>
       <c r="R55" s="0">
         <v>0</v>
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="0">
-        <v>0.75923550793894345</v>
+        <v>0.92845755334254365</v>
       </c>
       <c r="L56" s="0">
         <v>0</v>
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="0">
-        <v>0.53202231107234521</v>
+        <v>0.93277668494328625</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0.58754992894646829</v>
+        <v>0.85698283204900516</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="AB57" s="0">
-        <v>0.58951115649675589</v>
+        <v>0.76091431857363601</v>
       </c>
       <c r="AC57" s="0">
         <v>0</v>
@@ -11882,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="0">
-        <v>0.63223429044639756</v>
+        <v>0.7656575772218448</v>
       </c>
       <c r="F58" s="0">
         <v>0</v>
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="AV58" s="0">
-        <v>0.71482086829396319</v>
+        <v>0.99492823097859406</v>
       </c>
       <c r="AW58" s="0">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="AY58" s="0">
-        <v>0.70300270142144439</v>
+        <v>0.96805387968900369</v>
       </c>
       <c r="AZ58" s="0">
         <v>0</v>
@@ -12274,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="BO59" s="0">
-        <v>0.55476873390239156</v>
+        <v>0.6286526321790411</v>
       </c>
       <c r="BP59" s="0">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.6190584825413431</v>
+        <v>0.96715013126386162</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12554,7 +12554,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="0">
-        <v>0.62111853306292841</v>
+        <v>0.76184606506844132</v>
       </c>
       <c r="X61" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.54541607113068857</v>
+        <v>0.7015893807254765</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12927,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="0">
-        <v>0.61102531137845273</v>
+        <v>0.83547928803297211</v>
       </c>
       <c r="K63" s="0">
         <v>0</v>
@@ -12987,7 +12987,7 @@
         <v>0</v>
       </c>
       <c r="AD63" s="0">
-        <v>0.6131903620768151</v>
+        <v>0.62796885496191535</v>
       </c>
       <c r="AE63" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.68066938635792407</v>
+        <v>0.96620414162921842</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13115,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="0">
-        <v>0.76666733253602448</v>
+        <v>0.93617951212426931</v>
       </c>
       <c r="E64" s="0">
         <v>0</v>
@@ -13405,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="AF65" s="0">
-        <v>0.55545861260623841</v>
+        <v>0.669973025861059</v>
       </c>
       <c r="AG65" s="0">
         <v>0</v>
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="0">
-        <v>0.66735120578143381</v>
+        <v>0.9587744985679123</v>
       </c>
       <c r="AR65" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.63032162913334677</v>
+        <v>0.93545373865221626</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="AF66" s="0">
-        <v>0.5301273368506485</v>
+        <v>0.8554643256101242</v>
       </c>
       <c r="AG66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.82870815390193453</v>
+        <v>0.96889324964846801</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.61261292377967458</v>
+        <v>0.94189224486309353</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13820,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="AG67" s="0">
-        <v>0.874439075394432</v>
+        <v>0.90018862103075747</v>
       </c>
       <c r="AH67" s="0">
         <v>0</v>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.64850054360491538</v>
+        <v>0.93154299352267222</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -13954,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="0">
-        <v>0.60356570167279266</v>
+        <v>0.9138445412754046</v>
       </c>
       <c r="J68" s="0">
         <v>0</v>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="0">
-        <v>0.56315465301894208</v>
+        <v>0.98593737175969609</v>
       </c>
       <c r="Y68" s="0">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="AI68" s="0">
-        <v>0.50789777078289378</v>
+        <v>0.71385797640443549</v>
       </c>
       <c r="AJ68" s="0">
         <v>0</v>
